--- a/ESPN sports website/IPL/Kolkata Knight Riders/Tim Southee.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Tim Southee.xlsx
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -460,16 +460,16 @@
         <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Mumbai Indians</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>May 09, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 28, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="4">
@@ -600,16 +600,16 @@
         <v>0.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I6" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>May 07, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
   </sheetData>
